--- a/uploads/import_data.xlsx
+++ b/uploads/import_data.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>id</t>
   </si>
@@ -35,21 +35,6 @@
   </si>
   <si>
     <t>skill</t>
-  </si>
-  <si>
-    <t>sdf</t>
-  </si>
-  <si>
-    <t>asdfa</t>
-  </si>
-  <si>
-    <t>Male</t>
-  </si>
-  <si>
-    <t>uahsd@jbasd</t>
-  </si>
-  <si>
-    <t>nothing</t>
   </si>
 </sst>
 </file>
@@ -404,10 +389,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:G11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="G2" sqref="G2:G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -445,26 +430,218 @@
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B2" t="s">
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2">
+        <v>11</v>
+      </c>
+      <c r="D2">
+        <v>21</v>
+      </c>
+      <c r="E2">
+        <v>31</v>
+      </c>
+      <c r="F2" s="2">
+        <v>41</v>
+      </c>
+      <c r="G2">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B3">
+        <v>2</v>
+      </c>
+      <c r="C3">
+        <v>12</v>
+      </c>
+      <c r="D3">
+        <v>22</v>
+      </c>
+      <c r="E3">
+        <v>32</v>
+      </c>
+      <c r="F3" s="2">
+        <v>42</v>
+      </c>
+      <c r="G3">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B4">
+        <v>3</v>
+      </c>
+      <c r="C4">
+        <v>13</v>
+      </c>
+      <c r="D4">
+        <v>23</v>
+      </c>
+      <c r="E4">
+        <v>33</v>
+      </c>
+      <c r="F4" s="2">
+        <v>43</v>
+      </c>
+      <c r="G4">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B5">
+        <v>4</v>
+      </c>
+      <c r="C5">
+        <v>14</v>
+      </c>
+      <c r="D5">
+        <v>24</v>
+      </c>
+      <c r="E5">
+        <v>34</v>
+      </c>
+      <c r="F5" s="2">
+        <v>44</v>
+      </c>
+      <c r="G5">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B6">
+        <v>5</v>
+      </c>
+      <c r="C6">
+        <v>15</v>
+      </c>
+      <c r="D6">
+        <v>25</v>
+      </c>
+      <c r="E6">
+        <v>35</v>
+      </c>
+      <c r="F6" s="2">
+        <v>45</v>
+      </c>
+      <c r="G6">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B7">
+        <v>6</v>
+      </c>
+      <c r="C7">
+        <v>16</v>
+      </c>
+      <c r="D7">
+        <v>26</v>
+      </c>
+      <c r="E7">
+        <v>36</v>
+      </c>
+      <c r="F7" s="2">
+        <v>46</v>
+      </c>
+      <c r="G7">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B8">
         <v>7</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C8">
+        <v>17</v>
+      </c>
+      <c r="D8">
+        <v>27</v>
+      </c>
+      <c r="E8">
+        <v>37</v>
+      </c>
+      <c r="F8" s="2">
+        <v>47</v>
+      </c>
+      <c r="G8">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B9">
         <v>8</v>
       </c>
-      <c r="D2" t="s">
+      <c r="C9">
+        <v>18</v>
+      </c>
+      <c r="D9">
+        <v>28</v>
+      </c>
+      <c r="E9">
+        <v>38</v>
+      </c>
+      <c r="F9" s="2">
+        <v>48</v>
+      </c>
+      <c r="G9">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B10">
         <v>9</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="C10">
+        <v>19</v>
+      </c>
+      <c r="D10">
+        <v>29</v>
+      </c>
+      <c r="E10">
+        <v>39</v>
+      </c>
+      <c r="F10" s="2">
+        <v>49</v>
+      </c>
+      <c r="G10">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B11">
         <v>10</v>
       </c>
-      <c r="G2" t="s">
-        <v>11</v>
+      <c r="C11">
+        <v>20</v>
+      </c>
+      <c r="D11">
+        <v>30</v>
+      </c>
+      <c r="E11">
+        <v>40</v>
+      </c>
+      <c r="F11" s="2">
+        <v>50</v>
+      </c>
+      <c r="G11">
+        <v>60</v>
       </c>
     </row>
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
   <hyperlinks>
-    <hyperlink ref="F2" r:id="rId1"/>
+    <hyperlink ref="F2" r:id="rId1" display="uahsd@jbasd"/>
+    <hyperlink ref="F3" r:id="rId2" display="uahsd@jbasd"/>
+    <hyperlink ref="F4" r:id="rId3" display="uahsd@jbasd"/>
+    <hyperlink ref="F6" r:id="rId4" display="uahsd@jbasd"/>
+    <hyperlink ref="F8" r:id="rId5" display="uahsd@jbasd"/>
+    <hyperlink ref="F10" r:id="rId6" display="uahsd@jbasd"/>
+    <hyperlink ref="F5" r:id="rId7" display="uahsd@jbasd"/>
+    <hyperlink ref="F7" r:id="rId8" display="uahsd@jbasd"/>
+    <hyperlink ref="F9" r:id="rId9" display="uahsd@jbasd"/>
+    <hyperlink ref="F11" r:id="rId10" display="uahsd@jbasd"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
